--- a/TE_consensus_by_complex.xlsx
+++ b/TE_consensus_by_complex.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhlub\Documents\khare_lab\coronavirus (1)\new_variants\omicron\upload\omicron_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED8C3619-5F59-461C-9129-E4349B3EB15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF48604-0094-4739-8D8D-6C73ED375008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-24795" yWindow="4005" windowWidth="11175" windowHeight="6945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="consensus_by_model" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3129" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3128" uniqueCount="354">
   <si>
     <t>class</t>
   </si>
@@ -832,9 +832,6 @@
     <t>7VNE</t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>7S0E</t>
   </si>
   <si>
@@ -1093,7 +1090,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2720,12 +2717,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC707"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36531,11 +36528,9 @@
       </c>
     </row>
     <row r="514" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A514" s="120" t="s">
+      <c r="A514" s="120"/>
+      <c r="B514" s="121" t="s">
         <v>269</v>
-      </c>
-      <c r="B514" s="121" t="s">
-        <v>270</v>
       </c>
       <c r="C514" s="121">
         <v>1</v>
@@ -36592,7 +36587,7 @@
     <row r="515" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A515" s="75"/>
       <c r="B515" s="75" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C515" s="75">
         <v>1</v>
@@ -36651,7 +36646,7 @@
     <row r="516" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A516" s="44"/>
       <c r="B516" s="44" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C516" s="44">
         <v>2</v>
@@ -36714,7 +36709,7 @@
     <row r="517" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A517" s="45"/>
       <c r="B517" s="45" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C517" s="45">
         <v>3</v>
@@ -36783,7 +36778,7 @@
     <row r="518" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A518" s="46"/>
       <c r="B518" s="46" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C518" s="46">
         <v>1</v>
@@ -36850,7 +36845,7 @@
     <row r="519" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A519" s="47"/>
       <c r="B519" s="47" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C519" s="47">
         <v>2</v>
@@ -36919,7 +36914,7 @@
     <row r="520" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A520" s="48"/>
       <c r="B520" s="48" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C520" s="48">
         <v>1</v>
@@ -36988,7 +36983,7 @@
     <row r="521" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A521" s="49"/>
       <c r="B521" s="49" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C521" s="49">
         <v>2</v>
@@ -37057,7 +37052,7 @@
     <row r="522" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A522" s="50"/>
       <c r="B522" s="50" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C522" s="50">
         <v>3</v>
@@ -37122,7 +37117,7 @@
     <row r="523" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A523" s="51"/>
       <c r="B523" s="51" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C523" s="51">
         <v>4</v>
@@ -37185,7 +37180,7 @@
     <row r="524" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A524" s="51"/>
       <c r="B524" s="51" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C524" s="51">
         <v>5</v>
@@ -37246,7 +37241,7 @@
     <row r="525" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A525" s="52"/>
       <c r="B525" s="52" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C525" s="52">
         <v>6</v>
@@ -37317,7 +37312,7 @@
     <row r="526" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A526" s="53"/>
       <c r="B526" s="53" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C526" s="53">
         <v>1</v>
@@ -37380,7 +37375,7 @@
     <row r="527" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A527" s="54"/>
       <c r="B527" s="54" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C527" s="54">
         <v>1</v>
@@ -37447,7 +37442,7 @@
     <row r="528" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A528" s="53"/>
       <c r="B528" s="53" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C528" s="53">
         <v>1</v>
@@ -37518,7 +37513,7 @@
     <row r="529" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A529" s="55"/>
       <c r="B529" s="55" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C529" s="55">
         <v>1</v>
@@ -37713,7 +37708,7 @@
     <row r="532" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A532" s="56"/>
       <c r="B532" s="56" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C532" s="56">
         <v>1</v>
@@ -37908,7 +37903,7 @@
     <row r="535" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A535" s="54"/>
       <c r="B535" s="54" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C535" s="54">
         <v>1</v>
@@ -37971,7 +37966,7 @@
     <row r="536" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A536" s="53"/>
       <c r="B536" s="53" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C536" s="53">
         <v>2</v>
@@ -38038,7 +38033,7 @@
     <row r="537" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A537" s="53"/>
       <c r="B537" s="53" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C537" s="53">
         <v>3</v>
@@ -38101,7 +38096,7 @@
     <row r="538" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A538" s="52"/>
       <c r="B538" s="52" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C538" s="52">
         <v>4</v>
@@ -38294,7 +38289,7 @@
     <row r="541" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A541" s="57"/>
       <c r="B541" s="57" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C541" s="57">
         <v>1</v>
@@ -38351,7 +38346,7 @@
     <row r="542" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A542" s="51"/>
       <c r="B542" s="51" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C542" s="51">
         <v>1</v>
@@ -38418,7 +38413,7 @@
     <row r="543" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A543" s="58"/>
       <c r="B543" s="58" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C543" s="58">
         <v>1</v>
@@ -38483,7 +38478,7 @@
     <row r="544" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A544" s="59"/>
       <c r="B544" s="59" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C544" s="59">
         <v>1</v>
@@ -38684,7 +38679,7 @@
     <row r="547" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A547" s="57"/>
       <c r="B547" s="57" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C547" s="57">
         <v>1</v>
@@ -38741,7 +38736,7 @@
     <row r="548" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A548" s="42"/>
       <c r="B548" s="42" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C548" s="42">
         <v>1</v>
@@ -38808,7 +38803,7 @@
     <row r="549" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A549" s="57"/>
       <c r="B549" s="57" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C549" s="57">
         <v>2</v>
@@ -38877,7 +38872,7 @@
     <row r="550" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A550" s="51"/>
       <c r="B550" s="51" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C550" s="51">
         <v>1</v>
@@ -38944,7 +38939,7 @@
     <row r="551" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A551" s="57"/>
       <c r="B551" s="57" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C551" s="57">
         <v>2</v>
@@ -39011,7 +39006,7 @@
     <row r="552" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A552" s="50"/>
       <c r="B552" s="50" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C552" s="50">
         <v>1</v>
@@ -39078,7 +39073,7 @@
     <row r="553" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A553" s="57"/>
       <c r="B553" s="57" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C553" s="57">
         <v>1</v>
@@ -39139,7 +39134,7 @@
     <row r="554" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A554" s="53"/>
       <c r="B554" s="53" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C554" s="53">
         <v>1</v>
@@ -39204,7 +39199,7 @@
     <row r="555" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A555" s="45"/>
       <c r="B555" s="45" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C555" s="45">
         <v>2</v>
@@ -39269,7 +39264,7 @@
     <row r="556" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A556" s="61"/>
       <c r="B556" s="61" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C556" s="61">
         <v>1</v>
@@ -39328,7 +39323,7 @@
     <row r="557" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A557" s="51"/>
       <c r="B557" s="51" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C557" s="51">
         <v>2</v>
@@ -39387,7 +39382,7 @@
     <row r="558" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A558" s="42"/>
       <c r="B558" s="42" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C558" s="42">
         <v>1</v>
@@ -39509,7 +39504,7 @@
     <row r="560" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A560" s="47"/>
       <c r="B560" s="47" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C560" s="47">
         <v>1</v>
@@ -39568,7 +39563,7 @@
     <row r="561" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A561" s="62"/>
       <c r="B561" s="62" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C561" s="62">
         <v>1</v>
@@ -39635,7 +39630,7 @@
     <row r="562" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A562" s="42"/>
       <c r="B562" s="42" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C562" s="42">
         <v>1</v>
@@ -39698,7 +39693,7 @@
     <row r="563" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A563" s="57"/>
       <c r="B563" s="57" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C563" s="57">
         <v>1</v>
@@ -40029,7 +40024,7 @@
     <row r="568" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A568" s="42"/>
       <c r="B568" s="42" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C568" s="42">
         <v>1</v>
@@ -40088,7 +40083,7 @@
     <row r="569" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A569" s="47"/>
       <c r="B569" s="47" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C569" s="47">
         <v>3</v>
@@ -40151,7 +40146,7 @@
     <row r="570" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A570" s="42"/>
       <c r="B570" s="42" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C570" s="42">
         <v>4</v>
@@ -40210,7 +40205,7 @@
     <row r="571" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A571" s="44"/>
       <c r="B571" s="44" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C571" s="44">
         <v>5</v>
@@ -40277,7 +40272,7 @@
     <row r="572" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A572" s="54"/>
       <c r="B572" s="54" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C572" s="54">
         <v>7</v>
@@ -40344,7 +40339,7 @@
     <row r="573" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A573" s="42"/>
       <c r="B573" s="42" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C573" s="42">
         <v>8</v>
@@ -40403,7 +40398,7 @@
     <row r="574" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A574" s="47"/>
       <c r="B574" s="47" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C574" s="47">
         <v>2</v>
@@ -40464,7 +40459,7 @@
     <row r="575" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A575" s="52"/>
       <c r="B575" s="52" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C575" s="52">
         <v>3</v>
@@ -40714,7 +40709,7 @@
     <row r="579" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A579" s="51"/>
       <c r="B579" s="51" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C579" s="51">
         <v>1</v>
@@ -40783,7 +40778,7 @@
     <row r="580" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A580" s="44"/>
       <c r="B580" s="44" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C580" s="44">
         <v>2</v>
@@ -40850,7 +40845,7 @@
     <row r="581" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A581" s="57"/>
       <c r="B581" s="57" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C581" s="57">
         <v>3</v>
@@ -40915,7 +40910,7 @@
     <row r="582" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A582" s="55"/>
       <c r="B582" s="55" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C582" s="55">
         <v>1</v>
@@ -40976,7 +40971,7 @@
     <row r="583" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A583" s="54"/>
       <c r="B583" s="54" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C583" s="54">
         <v>2</v>
@@ -41037,7 +41032,7 @@
     <row r="584" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A584" s="45"/>
       <c r="B584" s="45" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C584" s="45">
         <v>3</v>
@@ -41100,7 +41095,7 @@
     <row r="585" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A585" s="45"/>
       <c r="B585" s="45" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C585" s="45">
         <v>1</v>
@@ -41167,7 +41162,7 @@
     <row r="586" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A586" s="60"/>
       <c r="B586" s="60" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C586" s="60">
         <v>1</v>
@@ -41228,7 +41223,7 @@
     <row r="587" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A587" s="57"/>
       <c r="B587" s="57" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C587" s="57">
         <v>1</v>
@@ -41285,7 +41280,7 @@
     <row r="588" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A588" s="50"/>
       <c r="B588" s="50" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C588" s="50">
         <v>1</v>
@@ -41344,7 +41339,7 @@
     <row r="589" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A589" s="60"/>
       <c r="B589" s="60" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C589" s="60">
         <v>1</v>
@@ -41411,7 +41406,7 @@
     <row r="590" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A590" s="63"/>
       <c r="B590" s="63" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C590" s="63">
         <v>2</v>
@@ -41476,7 +41471,7 @@
     <row r="591" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A591" s="60"/>
       <c r="B591" s="60" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C591" s="60">
         <v>3</v>
@@ -41547,7 +41542,7 @@
     <row r="592" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A592" s="44"/>
       <c r="B592" s="44" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C592" s="44">
         <v>1</v>
@@ -41614,7 +41609,7 @@
     <row r="593" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A593" s="42"/>
       <c r="B593" s="42" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C593" s="42">
         <v>1</v>
@@ -41679,7 +41674,7 @@
     <row r="594" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A594" s="53"/>
       <c r="B594" s="53" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C594" s="53">
         <v>2</v>
@@ -41748,7 +41743,7 @@
     <row r="595" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A595" s="45"/>
       <c r="B595" s="45" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C595" s="45">
         <v>3</v>
@@ -41878,7 +41873,7 @@
     <row r="597" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A597" s="45"/>
       <c r="B597" s="45" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C597" s="45">
         <v>1</v>
@@ -41939,7 +41934,7 @@
     <row r="598" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A598" s="45"/>
       <c r="B598" s="45" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C598" s="45">
         <v>2</v>
@@ -42002,7 +41997,7 @@
     <row r="599" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A599" s="51"/>
       <c r="B599" s="51" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C599" s="51">
         <v>1</v>
@@ -42067,7 +42062,7 @@
     <row r="600" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A600" s="47"/>
       <c r="B600" s="47" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C600" s="47">
         <v>2</v>
@@ -42126,7 +42121,7 @@
     <row r="601" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A601" s="48"/>
       <c r="B601" s="48" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C601" s="48">
         <v>1</v>
@@ -42199,7 +42194,7 @@
     <row r="602" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A602" s="42"/>
       <c r="B602" s="42" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C602" s="42">
         <v>2</v>
@@ -42512,7 +42507,7 @@
     <row r="607" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A607" s="57"/>
       <c r="B607" s="57" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C607" s="57">
         <v>1</v>
@@ -42569,7 +42564,7 @@
     <row r="608" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A608" s="57"/>
       <c r="B608" s="57" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C608" s="57">
         <v>1</v>
@@ -42626,7 +42621,7 @@
     <row r="609" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A609" s="57"/>
       <c r="B609" s="57" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C609" s="57">
         <v>2</v>
@@ -42683,7 +42678,7 @@
     <row r="610" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A610" s="57"/>
       <c r="B610" s="57" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C610" s="57">
         <v>1</v>
@@ -42740,7 +42735,7 @@
     <row r="611" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A611" s="59"/>
       <c r="B611" s="59" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C611" s="59">
         <v>1</v>
@@ -42803,7 +42798,7 @@
     <row r="612" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A612" s="53"/>
       <c r="B612" s="53" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C612" s="53">
         <v>1</v>
@@ -42872,7 +42867,7 @@
     <row r="613" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A613" s="59"/>
       <c r="B613" s="59" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C613" s="59">
         <v>1</v>
@@ -42937,7 +42932,7 @@
     <row r="614" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A614" s="50"/>
       <c r="B614" s="50" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C614" s="50">
         <v>1</v>
@@ -42998,7 +42993,7 @@
     <row r="615" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A615" s="54"/>
       <c r="B615" s="54" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C615" s="54">
         <v>2</v>
@@ -43061,7 +43056,7 @@
     <row r="616" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A616" s="55"/>
       <c r="B616" s="55" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C616" s="55">
         <v>3</v>
@@ -43126,7 +43121,7 @@
     <row r="617" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A617" s="57"/>
       <c r="B617" s="57" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C617" s="57">
         <v>4</v>
@@ -43189,7 +43184,7 @@
     <row r="618" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A618" s="48"/>
       <c r="B618" s="48" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C618" s="48">
         <v>5</v>
@@ -43254,7 +43249,7 @@
     <row r="619" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A619" s="61"/>
       <c r="B619" s="61" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C619" s="61">
         <v>6</v>
@@ -43317,7 +43312,7 @@
     <row r="620" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A620" s="49"/>
       <c r="B620" s="49" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C620" s="49">
         <v>7</v>
@@ -43382,7 +43377,7 @@
     <row r="621" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A621" s="50"/>
       <c r="B621" s="50" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C621" s="50">
         <v>8</v>
@@ -43632,7 +43627,7 @@
     <row r="625" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A625" s="56"/>
       <c r="B625" s="56" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C625" s="56">
         <v>1</v>
@@ -43699,7 +43694,7 @@
     <row r="626" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A626" s="52"/>
       <c r="B626" s="52" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C626" s="52">
         <v>1</v>
@@ -43760,7 +43755,7 @@
     <row r="627" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A627" s="63"/>
       <c r="B627" s="63" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C627" s="63">
         <v>1</v>
@@ -43829,7 +43824,7 @@
     <row r="628" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A628" s="53"/>
       <c r="B628" s="53" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C628" s="53">
         <v>2</v>
@@ -44069,7 +44064,7 @@
     <row r="632" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A632" s="64"/>
       <c r="B632" s="64" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C632" s="64">
         <v>1</v>
@@ -44142,7 +44137,7 @@
     <row r="633" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A633" s="65"/>
       <c r="B633" s="65" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C633" s="65">
         <v>2</v>
@@ -44211,7 +44206,7 @@
     <row r="634" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A634" s="50"/>
       <c r="B634" s="50" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C634" s="50">
         <v>3</v>
@@ -44272,7 +44267,7 @@
     <row r="635" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A635" s="50"/>
       <c r="B635" s="50" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C635" s="50">
         <v>4</v>
@@ -44333,7 +44328,7 @@
     <row r="636" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A636" s="58"/>
       <c r="B636" s="58" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C636" s="58">
         <v>1</v>
@@ -44400,7 +44395,7 @@
     <row r="637" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A637" s="45"/>
       <c r="B637" s="45" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C637" s="45">
         <v>2</v>
@@ -44473,7 +44468,7 @@
     <row r="638" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A638" s="45"/>
       <c r="B638" s="45" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C638" s="45">
         <v>1</v>
@@ -44538,7 +44533,7 @@
     <row r="639" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A639" s="44"/>
       <c r="B639" s="44" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C639" s="44">
         <v>2</v>
@@ -44607,7 +44602,7 @@
     <row r="640" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A640" s="44"/>
       <c r="B640" s="44" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C640" s="44">
         <v>3</v>
@@ -44676,7 +44671,7 @@
     <row r="641" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A641" s="54"/>
       <c r="B641" s="54" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C641" s="54">
         <v>1</v>
@@ -44747,7 +44742,7 @@
     <row r="642" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A642" s="66"/>
       <c r="B642" s="66" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C642" s="66">
         <v>1</v>
@@ -44816,7 +44811,7 @@
     <row r="643" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A643" s="67"/>
       <c r="B643" s="67" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C643" s="67">
         <v>1</v>
@@ -44885,7 +44880,7 @@
     <row r="644" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A644" s="57"/>
       <c r="B644" s="57" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C644" s="57">
         <v>1</v>
@@ -44950,7 +44945,7 @@
     <row r="645" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A645" s="50"/>
       <c r="B645" s="50" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C645" s="50">
         <v>2</v>
@@ -45271,7 +45266,7 @@
     <row r="650" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A650" s="62"/>
       <c r="B650" s="62" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C650" s="62">
         <v>1</v>
@@ -45346,7 +45341,7 @@
     <row r="651" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A651" s="56"/>
       <c r="B651" s="56" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C651" s="56">
         <v>1</v>
@@ -45405,7 +45400,7 @@
     <row r="652" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A652" s="68"/>
       <c r="B652" s="68" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C652" s="68">
         <v>1</v>
@@ -45474,7 +45469,7 @@
     <row r="653" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A653" s="54"/>
       <c r="B653" s="54" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C653" s="54">
         <v>1</v>
@@ -45545,7 +45540,7 @@
     <row r="654" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A654" s="57"/>
       <c r="B654" s="57" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C654" s="57">
         <v>1</v>
@@ -45602,7 +45597,7 @@
     <row r="655" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A655" s="45"/>
       <c r="B655" s="45" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C655" s="45">
         <v>1</v>
@@ -45671,7 +45666,7 @@
     <row r="656" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A656" s="60"/>
       <c r="B656" s="60" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C656" s="60">
         <v>1</v>
@@ -45740,7 +45735,7 @@
     <row r="657" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A657" s="57"/>
       <c r="B657" s="57" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C657" s="57">
         <v>1</v>
@@ -45801,7 +45796,7 @@
     <row r="658" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A658" s="51"/>
       <c r="B658" s="51" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C658" s="51">
         <v>1</v>
@@ -45860,7 +45855,7 @@
     <row r="659" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A659" s="57"/>
       <c r="B659" s="57" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C659" s="57">
         <v>2</v>
@@ -45917,7 +45912,7 @@
     <row r="660" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A660" s="51"/>
       <c r="B660" s="51" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C660" s="51">
         <v>3</v>
@@ -45976,7 +45971,7 @@
     <row r="661" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A661" s="53"/>
       <c r="B661" s="53" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C661" s="53">
         <v>1</v>
@@ -46035,7 +46030,7 @@
     <row r="662" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A662" s="58"/>
       <c r="B662" s="58" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C662" s="58">
         <v>2</v>
@@ -46096,7 +46091,7 @@
     <row r="663" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A663" s="45"/>
       <c r="B663" s="45" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C663" s="45">
         <v>1</v>
@@ -46159,7 +46154,7 @@
     <row r="664" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A664" s="68"/>
       <c r="B664" s="68" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C664" s="68">
         <v>2</v>
@@ -46224,7 +46219,7 @@
     <row r="665" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A665" s="62"/>
       <c r="B665" s="62" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C665" s="62">
         <v>3</v>
@@ -46287,7 +46282,7 @@
     <row r="666" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A666" s="69"/>
       <c r="B666" s="69" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C666" s="69">
         <v>1</v>
@@ -46356,7 +46351,7 @@
     <row r="667" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A667" s="54"/>
       <c r="B667" s="54" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C667" s="54">
         <v>1</v>
@@ -46421,7 +46416,7 @@
     <row r="668" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A668" s="52"/>
       <c r="B668" s="52" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C668" s="52">
         <v>2</v>
@@ -46486,7 +46481,7 @@
     <row r="669" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A669" s="56"/>
       <c r="B669" s="56" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C669" s="56">
         <v>3</v>
@@ -46551,7 +46546,7 @@
     <row r="670" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A670" s="57"/>
       <c r="B670" s="57" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C670" s="57">
         <v>1</v>
@@ -46614,7 +46609,7 @@
     <row r="671" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A671" s="68"/>
       <c r="B671" s="68" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C671" s="68">
         <v>1</v>
@@ -46679,7 +46674,7 @@
     <row r="672" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A672" s="63"/>
       <c r="B672" s="63" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C672" s="63">
         <v>1</v>
@@ -46748,7 +46743,7 @@
     <row r="673" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A673" s="66"/>
       <c r="B673" s="66" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C673" s="66">
         <v>1</v>
@@ -46815,7 +46810,7 @@
     <row r="674" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A674" s="42"/>
       <c r="B674" s="42" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C674" s="42">
         <v>1</v>
@@ -46880,7 +46875,7 @@
     <row r="675" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A675" s="54"/>
       <c r="B675" s="54" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C675" s="54">
         <v>2</v>
@@ -46947,7 +46942,7 @@
     <row r="676" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A676" s="68"/>
       <c r="B676" s="68" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C676" s="68">
         <v>3</v>
@@ -47014,7 +47009,7 @@
     <row r="677" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A677" s="45"/>
       <c r="B677" s="45" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C677" s="45">
         <v>4</v>
@@ -47083,7 +47078,7 @@
     <row r="678" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A678" s="55"/>
       <c r="B678" s="55" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C678" s="55">
         <v>1</v>
@@ -47144,7 +47139,7 @@
     <row r="679" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A679" s="50"/>
       <c r="B679" s="50" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C679" s="50">
         <v>2</v>
@@ -47203,7 +47198,7 @@
     <row r="680" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A680" s="51"/>
       <c r="B680" s="51" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C680" s="51">
         <v>1</v>
@@ -47264,7 +47259,7 @@
     <row r="681" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A681" s="55"/>
       <c r="B681" s="55" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C681" s="55">
         <v>2</v>
@@ -47325,7 +47320,7 @@
     <row r="682" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A682" s="50"/>
       <c r="B682" s="50" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C682" s="50">
         <v>1</v>
@@ -47384,7 +47379,7 @@
     <row r="683" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A683" s="51"/>
       <c r="B683" s="51" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C683" s="51">
         <v>2</v>
@@ -47445,7 +47440,7 @@
     <row r="684" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A684" s="50"/>
       <c r="B684" s="50" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C684" s="50">
         <v>3</v>
@@ -47504,7 +47499,7 @@
     <row r="685" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A685" s="50"/>
       <c r="B685" s="50" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C685" s="50">
         <v>4</v>
@@ -47563,7 +47558,7 @@
     <row r="686" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A686" s="50"/>
       <c r="B686" s="50" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C686" s="50">
         <v>5</v>
@@ -47622,7 +47617,7 @@
     <row r="687" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A687" s="50"/>
       <c r="B687" s="50" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C687" s="50">
         <v>6</v>
@@ -47681,7 +47676,7 @@
     <row r="688" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A688" s="50"/>
       <c r="B688" s="50" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C688" s="50">
         <v>1</v>
@@ -47744,7 +47739,7 @@
     <row r="689" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A689" s="67"/>
       <c r="B689" s="67" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C689" s="67">
         <v>2</v>
@@ -48313,7 +48308,7 @@
     <row r="698" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A698" s="51"/>
       <c r="B698" s="51" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C698" s="51">
         <v>1</v>
@@ -48374,7 +48369,7 @@
     <row r="699" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A699" s="53"/>
       <c r="B699" s="53" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C699" s="53">
         <v>2</v>
@@ -48567,7 +48562,7 @@
     <row r="702" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A702" s="62"/>
       <c r="B702" s="62" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C702" s="62">
         <v>1</v>
@@ -48632,7 +48627,7 @@
     <row r="703" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A703" s="52"/>
       <c r="B703" s="52" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C703" s="52">
         <v>1</v>
@@ -48693,7 +48688,7 @@
     <row r="704" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A704" s="57"/>
       <c r="B704" s="57" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C704" s="57">
         <v>1</v>
@@ -48750,7 +48745,7 @@
     <row r="705" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A705" s="57"/>
       <c r="B705" s="57" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C705" s="57">
         <v>2</v>
@@ -48807,7 +48802,7 @@
     <row r="706" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A706" s="57"/>
       <c r="B706" s="57" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C706" s="57">
         <v>1</v>
@@ -48872,7 +48867,7 @@
     <row r="707" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A707" s="47"/>
       <c r="B707" s="47" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C707" s="47">
         <v>1</v>
@@ -48931,7 +48926,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AC707"/>
+  <autoFilter ref="A1:AC707" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="AC2:AC707">
     <cfRule type="colorScale" priority="1">
       <colorScale>

--- a/TE_consensus_by_complex.xlsx
+++ b/TE_consensus_by_complex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhlub\Documents\khare_lab\coronavirus (1)\new_variants\omicron\upload\omicron_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF48604-0094-4739-8D8D-6C73ED375008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160C4898-493D-475F-A275-95AADCF25628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24795" yWindow="4005" windowWidth="11175" windowHeight="6945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3128" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3133" uniqueCount="358">
   <si>
     <t>class</t>
   </si>
@@ -1086,6 +1086,18 @@
   <si>
     <t>7VMU</t>
   </si>
+  <si>
+    <t>7E23</t>
+  </si>
+  <si>
+    <t>7E39</t>
+  </si>
+  <si>
+    <t>7E86</t>
+  </si>
+  <si>
+    <t>7E88</t>
+  </si>
 </sst>
 </file>
 
@@ -2001,7 +2013,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2363,6 +2375,21 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="18" fillId="43" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="58" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="43" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="50" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="46" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2722,7 +2749,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15492,8 +15519,8 @@
       <c r="A189" s="89">
         <v>2</v>
       </c>
-      <c r="B189" s="12">
-        <v>7.0000000000000004E+23</v>
+      <c r="B189" s="123" t="s">
+        <v>354</v>
       </c>
       <c r="C189" s="12">
         <v>1</v>
@@ -39440,8 +39467,8 @@
     </row>
     <row r="559" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A559" s="52"/>
-      <c r="B559" s="52">
-        <v>7.0000000000000003E+39</v>
+      <c r="B559" s="124" t="s">
+        <v>355</v>
       </c>
       <c r="C559" s="52">
         <v>1</v>
@@ -39755,8 +39782,8 @@
     </row>
     <row r="564" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A564" s="42"/>
-      <c r="B564" s="42">
-        <v>7.0000000000000004E+86</v>
+      <c r="B564" s="125" t="s">
+        <v>356</v>
       </c>
       <c r="C564" s="42">
         <v>1</v>
@@ -39826,8 +39853,8 @@
     </row>
     <row r="565" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A565" s="42"/>
-      <c r="B565" s="42">
-        <v>6.9999999999999995E+88</v>
+      <c r="B565" s="125" t="s">
+        <v>357</v>
       </c>
       <c r="C565" s="42">
         <v>1</v>
@@ -39893,8 +39920,8 @@
     </row>
     <row r="566" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A566" s="45"/>
-      <c r="B566" s="45">
-        <v>6.9999999999999995E+88</v>
+      <c r="B566" s="126" t="s">
+        <v>357</v>
       </c>
       <c r="C566" s="45">
         <v>2</v>
@@ -39962,7 +39989,7 @@
     </row>
     <row r="567" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A567" s="58"/>
-      <c r="B567" s="58">
+      <c r="B567" s="127">
         <v>6.9999999999999995E+88</v>
       </c>
       <c r="C567" s="58">
